--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_군및기타_1_ingov_JS.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_군및기타_1_ingov_JS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.7 orgtree position &amp; rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07541755-FB1F-4C78-9827-2D85E661BD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8699C296-1AA8-442D-BA77-2114BA17BF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9389" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9390" uniqueCount="1219">
   <si>
     <t>CareerString</t>
   </si>
@@ -3820,12 +3820,52 @@
   <si>
     <t>작전총국_X처_X군_제10사단_제25연대</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>노동당</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>조선공상당</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>북조선분국</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>책임비서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3873,6 +3913,24 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3928,7 +3986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3958,6 +4016,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4262,9 +4321,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T836"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="O277" sqref="O277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
@@ -13958,7 +14017,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="273" spans="1:18">
+    <row r="273" spans="1:19">
       <c r="A273" s="4" t="s">
         <v>450</v>
       </c>
@@ -13993,7 +14052,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" spans="1:19">
       <c r="A274" s="4" t="s">
         <v>450</v>
       </c>
@@ -14028,7 +14087,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="275" spans="1:18">
+    <row r="275" spans="1:19">
       <c r="A275" s="4" t="s">
         <v>453</v>
       </c>
@@ -14069,7 +14128,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:19">
       <c r="A276" s="4" t="s">
         <v>457</v>
       </c>
@@ -14110,7 +14169,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:19" ht="17.5">
       <c r="A277" s="4" t="s">
         <v>458</v>
       </c>
@@ -14141,17 +14200,20 @@
       <c r="O277" s="5" t="s">
         <v>1081</v>
       </c>
-      <c r="P277" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q277" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="R277" s="5" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18">
+      <c r="P277" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q277" s="11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="R277" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="S277" s="5" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19">
       <c r="A278" s="4" t="s">
         <v>459</v>
       </c>
@@ -14186,7 +14248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" spans="1:19">
       <c r="A279" s="4" t="s">
         <v>462</v>
       </c>
@@ -14221,7 +14283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" spans="1:19">
       <c r="A280" s="4" t="s">
         <v>465</v>
       </c>
@@ -14256,7 +14318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:18">
+    <row r="281" spans="1:19">
       <c r="A281" s="4" t="s">
         <v>467</v>
       </c>
@@ -14288,7 +14350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:19">
       <c r="A282" s="4" t="s">
         <v>470</v>
       </c>
@@ -14320,7 +14382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:19">
       <c r="A283" s="4" t="s">
         <v>471</v>
       </c>
@@ -14352,7 +14414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:19">
       <c r="A284" s="4" t="s">
         <v>472</v>
       </c>
@@ -14384,7 +14446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:18">
+    <row r="285" spans="1:19">
       <c r="A285" s="4" t="s">
         <v>473</v>
       </c>
@@ -14416,7 +14478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:18">
+    <row r="286" spans="1:19">
       <c r="A286" s="4" t="s">
         <v>476</v>
       </c>
@@ -14448,7 +14510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:18">
+    <row r="287" spans="1:19">
       <c r="A287" s="4" t="s">
         <v>477</v>
       </c>
@@ -14483,7 +14545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:19">
       <c r="A288" s="4" t="s">
         <v>481</v>
       </c>
@@ -34198,7 +34260,7 @@
           <x14:formula1>
             <xm:f>validation!$D$3:$D$17</xm:f>
           </x14:formula1>
-          <xm:sqref>P1:P1048576</xm:sqref>
+          <xm:sqref>P1:P276 P278:P1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
